--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1371419.068639196</v>
+        <v>1368737.657986663</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2881100.704896096</v>
+        <v>2881100.704896094</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4715399.674601322</v>
+        <v>4715399.674601324</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8509247.211778177</v>
+        <v>8509247.211778175</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -670,16 +670,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>319.3050668094503</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>193.7267882760293</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>100.0877454659934</v>
       </c>
       <c r="V4" t="n">
-        <v>116.3621902967423</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>314.1466833873294</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>256.0954292556622</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -946,13 +946,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>260.759658646293</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>327.9914143469221</v>
       </c>
       <c r="F8" t="n">
-        <v>272.5902023072439</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>175.6983641828945</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>308.8012700489857</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.7846186869749</v>
       </c>
       <c r="H11" t="n">
         <v>318.3176568687902</v>
       </c>
       <c r="I11" t="n">
-        <v>127.4501971105622</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.12819665185051</v>
+        <v>22.1281966518506</v>
       </c>
       <c r="S11" t="n">
         <v>159.2310895204677</v>
@@ -1426,19 +1426,19 @@
         <v>220.1865020871814</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1754815281552</v>
+        <v>242.4592976240806</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>86.14062302488001</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35229116545468</v>
+        <v>44.35229116545471</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.48886960815824</v>
+        <v>15.48886960815829</v>
       </c>
       <c r="S12" t="n">
         <v>131.1314955077976</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4609377894556</v>
       </c>
       <c r="H13" t="n">
-        <v>152.9406481689637</v>
+        <v>98.5760566681234</v>
       </c>
       <c r="I13" t="n">
-        <v>128.4381720867039</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.25679452515961</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>13.49623838122535</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.8608923274312</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>33.35934929338414</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.7846186869749</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>318.3176568687902</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>127.4501971105622</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22.1281966518506</v>
       </c>
       <c r="S14" t="n">
         <v>159.2310895204677</v>
@@ -1663,7 +1663,7 @@
         <v>220.1865020871814</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1754815281552</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1672,7 +1672,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>136.25164687347</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1706,7 +1706,7 @@
         <v>86.14062302488001</v>
       </c>
       <c r="I15" t="n">
-        <v>44.35229116545468</v>
+        <v>44.35229116545471</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.48886960815824</v>
+        <v>15.48886960815829</v>
       </c>
       <c r="S15" t="n">
         <v>131.1314955077976</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>58.2803487421462</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>90.58895836831056</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4609377894556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.9406481689637</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>128.4381720867039</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.25679452515961</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>22.92999396390395</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1864,7 +1864,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I17" t="n">
-        <v>43.399643069908</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.6444459974996</v>
@@ -1903,7 +1903,7 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1943,7 +1943,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I18" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S18" t="n">
         <v>127.6305556124798</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.521305406065164</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U19" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>76.19311257242965</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>156.0359987926838</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2098,10 +2098,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H20" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>196.7837899536301</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2180,7 +2180,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I21" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S21" t="n">
         <v>127.6305556124798</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>114.9182888355121</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>76.66783807881646</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -2304,7 +2304,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>55.34219483562516</v>
+        <v>288.5670671760588</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,10 +2332,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2478,25 +2478,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>23.62204018008967</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>147.2549171953235</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2575,7 +2575,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>4.946653683976183</v>
       </c>
       <c r="T26" t="n">
         <v>218.6444459974996</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>360.1380477278182</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>47.74454202375217</v>
       </c>
       <c r="U28" t="n">
-        <v>81.14008395092208</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43.39964306990787</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2809,10 +2809,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>36.04209281385329</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>120.1934288784715</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>266.324606400616</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>11.94721032648491</v>
       </c>
       <c r="G32" t="n">
-        <v>376.0445957592143</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.3566509204211</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>98.2211330066704</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3274,19 +3274,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4323500200001</v>
+        <v>222.2172295452414</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>141.3504906488836</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>112.3002456454842</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.263405521905338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>282.3222311223495</v>
+        <v>152.4706207287581</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3602,7 +3602,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I39" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3726,7 +3726,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>76.19311257242941</v>
+        <v>21.33014551465914</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3754,10 +3754,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>194.4657907998452</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>231.7357521617216</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124798</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>119.1064492346771</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>55.76138511506731</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3997,7 +3997,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.2466258135133</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>152.5015839585944</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4076,7 +4076,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281788</v>
+        <v>184.6193440262943</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>151.8949021505431</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.16584725159</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="C2" t="n">
-        <v>1166.99034575452</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="D2" t="n">
-        <v>781.5492169711881</v>
+        <v>1120.854321276904</v>
       </c>
       <c r="E2" t="n">
-        <v>378.9656920877326</v>
+        <v>718.2707963934481</v>
       </c>
       <c r="F2" t="n">
-        <v>56.43532157313636</v>
+        <v>705.4167619638299</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N2" t="n">
-        <v>1832.615452804709</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362701</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362701</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.655591362701</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W2" t="n">
-        <v>1956.656556330989</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="X2" t="n">
-        <v>1956.656556330989</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1560.16584725159</v>
+        <v>1506.295450060236</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016671</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231474</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.489264534035</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171668</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890313</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
         <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N3" t="n">
-        <v>2134.729194295015</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154359</v>
+        <v>847.6612598491633</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154359</v>
+        <v>677.4561419151526</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154359</v>
+        <v>521.8230288176674</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>622.0429194582225</v>
+        <v>847.6612598491633</v>
       </c>
       <c r="V4" t="n">
-        <v>504.5053535019172</v>
+        <v>847.6612598491633</v>
       </c>
       <c r="W4" t="n">
-        <v>504.5053535019172</v>
+        <v>847.6612598491633</v>
       </c>
       <c r="X4" t="n">
-        <v>270.4250312849002</v>
+        <v>847.6612598491633</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154359</v>
+        <v>847.6612598491633</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1170.713242184647</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="C5" t="n">
-        <v>777.5377406875771</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D5" t="n">
-        <v>777.5377406875771</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E5" t="n">
-        <v>777.5377406875771</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F5" t="n">
-        <v>518.8554889141809</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>91.34618151762442</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>450.3285375450862</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>943.6488292636151</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M5" t="n">
-        <v>1489.649729308196</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>2017.461012945658</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.655591362701</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.655591362701</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.655591362701</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W5" t="n">
-        <v>1956.656556330989</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X5" t="n">
-        <v>1567.203951264045</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y5" t="n">
-        <v>1170.713242184647</v>
+        <v>524.9463551197134</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083082</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O6" t="n">
         <v>1725.662044805891</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215.567024002098</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="C7" t="n">
-        <v>215.567024002098</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="D7" t="n">
-        <v>215.567024002098</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>215.567024002098</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>215.567024002098</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="T7" t="n">
-        <v>713.0409408113302</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="U7" t="n">
-        <v>713.0409408113302</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="V7" t="n">
-        <v>713.0409408113302</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="W7" t="n">
-        <v>449.647346219115</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="X7" t="n">
-        <v>215.567024002098</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.567024002098</v>
+        <v>847.4030175052487</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>855.5572059581896</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C8" t="n">
-        <v>855.5572059581896</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="D8" t="n">
-        <v>470.1160771748573</v>
+        <v>400.5938149390395</v>
       </c>
       <c r="E8" t="n">
-        <v>470.1160771748573</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806715</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
@@ -4810,46 +4810,46 @@
         <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303378</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749184</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780698</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.542660748985</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1652.542660748985</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1256.051951669587</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>54.70361680265887</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154359</v>
+        <v>374.4427628648853</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>830.0087803823671</v>
+        <v>1997.775557746354</v>
       </c>
       <c r="C11" t="n">
-        <v>518.0883055854119</v>
+        <v>1604.600056249285</v>
       </c>
       <c r="D11" t="n">
-        <v>518.0883055854119</v>
+        <v>1219.158927465952</v>
       </c>
       <c r="E11" t="n">
-        <v>518.0883055854119</v>
+        <v>1219.158927465952</v>
       </c>
       <c r="F11" t="n">
-        <v>518.0883055854119</v>
+        <v>802.2644889959299</v>
       </c>
       <c r="G11" t="n">
-        <v>518.0883055854119</v>
+        <v>389.3507327464603</v>
       </c>
       <c r="H11" t="n">
-        <v>196.5553188492602</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="I11" t="n">
-        <v>67.81774601030853</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J11" t="n">
-        <v>233.1804634040198</v>
+        <v>233.1804634040196</v>
       </c>
       <c r="K11" t="n">
-        <v>623.2061539373677</v>
+        <v>623.2061539373674</v>
       </c>
       <c r="L11" t="n">
-        <v>1155.038447149859</v>
+        <v>1155.038447149858</v>
       </c>
       <c r="M11" t="n">
-        <v>1743.891369324736</v>
+        <v>1743.891369324735</v>
       </c>
       <c r="N11" t="n">
-        <v>2315.248065610972</v>
+        <v>2315.248065610971</v>
       </c>
       <c r="O11" t="n">
-        <v>2796.406364865013</v>
+        <v>2796.406364865011</v>
       </c>
       <c r="P11" t="n">
-        <v>3179.687714733547</v>
+        <v>3179.687714733545</v>
       </c>
       <c r="Q11" t="n">
-        <v>3390.887300515426</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="R11" t="n">
-        <v>3368.535586725678</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="S11" t="n">
-        <v>3207.69610236157</v>
+        <v>3207.696102361568</v>
       </c>
       <c r="T11" t="n">
-        <v>2985.285494192699</v>
+        <v>2985.285494192698</v>
       </c>
       <c r="U11" t="n">
-        <v>2729.5526845683</v>
+        <v>2740.377112754232</v>
       </c>
       <c r="V11" t="n">
-        <v>2387.445875271819</v>
+        <v>2398.270303457751</v>
       </c>
       <c r="W11" t="n">
-        <v>2016.446840240106</v>
+        <v>2398.270303457751</v>
       </c>
       <c r="X11" t="n">
-        <v>1626.994235173163</v>
+        <v>2398.270303457751</v>
       </c>
       <c r="Y11" t="n">
-        <v>1230.503526093764</v>
+        <v>2398.270303457751</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>112.6180401168284</v>
       </c>
       <c r="I12" t="n">
-        <v>67.81774601030853</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J12" t="n">
-        <v>67.81774601030853</v>
+        <v>193.269216067357</v>
       </c>
       <c r="K12" t="n">
-        <v>67.81774601030853</v>
+        <v>534.093384770438</v>
       </c>
       <c r="L12" t="n">
-        <v>579.7352469026603</v>
+        <v>1046.01088566279</v>
       </c>
       <c r="M12" t="n">
-        <v>1240.591660577531</v>
+        <v>1139.678486132188</v>
       </c>
       <c r="N12" t="n">
-        <v>1930.330051093847</v>
+        <v>1139.678486132188</v>
       </c>
       <c r="O12" t="n">
-        <v>2368.854306808385</v>
+        <v>1687.265917681488</v>
       </c>
       <c r="P12" t="n">
-        <v>2368.854306808385</v>
+        <v>2117.821412365171</v>
       </c>
       <c r="Q12" t="n">
         <v>2368.854306808385</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.5474955343784</v>
+        <v>335.5318818260448</v>
       </c>
       <c r="C13" t="n">
-        <v>855.5474955343784</v>
+        <v>335.5318818260448</v>
       </c>
       <c r="D13" t="n">
-        <v>855.5474955343784</v>
+        <v>335.5318818260448</v>
       </c>
       <c r="E13" t="n">
-        <v>699.9886833935809</v>
+        <v>335.5318818260448</v>
       </c>
       <c r="F13" t="n">
-        <v>542.6627486065538</v>
+        <v>335.5318818260448</v>
       </c>
       <c r="G13" t="n">
-        <v>374.5203872030634</v>
+        <v>167.3895204225543</v>
       </c>
       <c r="H13" t="n">
-        <v>220.0348840020899</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="I13" t="n">
-        <v>90.29935664178288</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J13" t="n">
-        <v>67.81774601030853</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="K13" t="n">
-        <v>162.3711894224269</v>
+        <v>162.3711894224268</v>
       </c>
       <c r="L13" t="n">
-        <v>342.7740054503577</v>
+        <v>342.7740054503574</v>
       </c>
       <c r="M13" t="n">
-        <v>546.2254750950716</v>
+        <v>546.2254750950713</v>
       </c>
       <c r="N13" t="n">
-        <v>746.1669765717063</v>
+        <v>746.1669765717058</v>
       </c>
       <c r="O13" t="n">
-        <v>924.3448045675802</v>
+        <v>924.3448045675798</v>
       </c>
       <c r="P13" t="n">
         <v>1057.460847044327</v>
       </c>
       <c r="Q13" t="n">
-        <v>1070.049647765345</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="R13" t="n">
-        <v>1056.417083743905</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="S13" t="n">
-        <v>855.5474955343784</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="T13" t="n">
-        <v>855.5474955343784</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="U13" t="n">
-        <v>855.5474955343784</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="V13" t="n">
-        <v>855.5474955343784</v>
+        <v>804.0703025861684</v>
       </c>
       <c r="W13" t="n">
-        <v>855.5474955343784</v>
+        <v>520.7399005173461</v>
       </c>
       <c r="X13" t="n">
-        <v>855.5474955343784</v>
+        <v>520.7399005173461</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.5474955343784</v>
+        <v>520.7399005173461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1252.855239883512</v>
+        <v>1337.56626893889</v>
       </c>
       <c r="C14" t="n">
-        <v>1252.855239883512</v>
+        <v>1337.56626893889</v>
       </c>
       <c r="D14" t="n">
-        <v>1252.855239883512</v>
+        <v>1337.56626893889</v>
       </c>
       <c r="E14" t="n">
-        <v>1219.158927465952</v>
+        <v>934.9827440554342</v>
       </c>
       <c r="F14" t="n">
-        <v>802.2644889959299</v>
+        <v>518.0883055854119</v>
       </c>
       <c r="G14" t="n">
-        <v>389.3507327464603</v>
+        <v>518.0883055854119</v>
       </c>
       <c r="H14" t="n">
-        <v>67.81774601030853</v>
+        <v>196.5553188492602</v>
       </c>
       <c r="I14" t="n">
-        <v>67.81774601030853</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J14" t="n">
-        <v>233.18046340402</v>
+        <v>233.1804634040195</v>
       </c>
       <c r="K14" t="n">
-        <v>623.2061539373678</v>
+        <v>623.2061539373673</v>
       </c>
       <c r="L14" t="n">
-        <v>1155.038447149859</v>
+        <v>1155.038447149858</v>
       </c>
       <c r="M14" t="n">
         <v>1743.891369324735</v>
       </c>
       <c r="N14" t="n">
-        <v>2315.248065610972</v>
+        <v>2315.248065610971</v>
       </c>
       <c r="O14" t="n">
-        <v>2796.406364865013</v>
+        <v>2796.406364865011</v>
       </c>
       <c r="P14" t="n">
-        <v>3179.687714733547</v>
+        <v>3179.687714733545</v>
       </c>
       <c r="Q14" t="n">
-        <v>3390.887300515426</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="R14" t="n">
-        <v>3390.887300515426</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="S14" t="n">
-        <v>3230.047816151317</v>
+        <v>3207.696102361568</v>
       </c>
       <c r="T14" t="n">
-        <v>3007.637207982447</v>
+        <v>2985.285494192698</v>
       </c>
       <c r="U14" t="n">
-        <v>2751.904398358048</v>
+        <v>2985.285494192698</v>
       </c>
       <c r="V14" t="n">
-        <v>2409.797589061567</v>
+        <v>2643.178684896216</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.798554029854</v>
+        <v>2272.179649864504</v>
       </c>
       <c r="X14" t="n">
-        <v>1649.345948962911</v>
+        <v>2134.551723729685</v>
       </c>
       <c r="Y14" t="n">
-        <v>1252.855239883512</v>
+        <v>1738.061014650287</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>112.6180401168284</v>
       </c>
       <c r="I15" t="n">
-        <v>67.81774601030853</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J15" t="n">
-        <v>67.81774601030853</v>
+        <v>193.269216067357</v>
       </c>
       <c r="K15" t="n">
-        <v>67.81774601030853</v>
+        <v>534.0933847704381</v>
       </c>
       <c r="L15" t="n">
-        <v>67.81774601030853</v>
+        <v>1046.01088566279</v>
       </c>
       <c r="M15" t="n">
-        <v>700.9729900590866</v>
+        <v>1046.01088566279</v>
       </c>
       <c r="N15" t="n">
-        <v>1390.711380575402</v>
+        <v>1139.678486132188</v>
       </c>
       <c r="O15" t="n">
-        <v>1938.298812124703</v>
+        <v>1687.265917681488</v>
       </c>
       <c r="P15" t="n">
-        <v>2368.854306808385</v>
+        <v>2117.821412365171</v>
       </c>
       <c r="Q15" t="n">
         <v>2368.854306808385</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1070.049647765345</v>
+        <v>329.5268622961481</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.180608631864</v>
+        <v>159.3217443621373</v>
       </c>
       <c r="D16" t="n">
-        <v>855.5474955343784</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="E16" t="n">
-        <v>699.9886833935809</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="F16" t="n">
-        <v>542.6627486065538</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="G16" t="n">
-        <v>374.5203872030634</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="H16" t="n">
-        <v>220.0348840020899</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="I16" t="n">
-        <v>90.29935664178288</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J16" t="n">
-        <v>67.81774601030853</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="K16" t="n">
-        <v>162.3711894224269</v>
+        <v>162.3711894224268</v>
       </c>
       <c r="L16" t="n">
-        <v>342.7740054503577</v>
+        <v>342.7740054503574</v>
       </c>
       <c r="M16" t="n">
-        <v>546.2254750950716</v>
+        <v>546.2254750950713</v>
       </c>
       <c r="N16" t="n">
-        <v>746.1669765717063</v>
+        <v>746.1669765717058</v>
       </c>
       <c r="O16" t="n">
-        <v>924.3448045675802</v>
+        <v>924.3448045675798</v>
       </c>
       <c r="P16" t="n">
         <v>1057.460847044327</v>
       </c>
       <c r="Q16" t="n">
-        <v>1070.049647765345</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="R16" t="n">
-        <v>1070.049647765345</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="S16" t="n">
-        <v>1070.049647765345</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="T16" t="n">
-        <v>1070.049647765345</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="U16" t="n">
-        <v>1070.049647765345</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="V16" t="n">
-        <v>1070.049647765345</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="W16" t="n">
-        <v>1070.049647765345</v>
+        <v>786.7192456965217</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.049647765345</v>
+        <v>552.6389234795048</v>
       </c>
       <c r="Y16" t="n">
-        <v>1070.049647765345</v>
+        <v>329.5268622961481</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1669.724021641789</v>
+        <v>1764.067163279178</v>
       </c>
       <c r="C17" t="n">
-        <v>1669.724021641789</v>
+        <v>1764.067163279178</v>
       </c>
       <c r="D17" t="n">
-        <v>1669.724021641789</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E17" t="n">
-        <v>1267.140496758334</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2460582883115</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G17" t="n">
-        <v>437.68812897518</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H17" t="n">
-        <v>119.7992548508008</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I17" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J17" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K17" t="n">
         <v>705.3108151130497</v>
@@ -5527,40 +5527,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N17" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O17" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P17" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q17" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R17" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S17" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T17" t="n">
-        <v>3424.477523585818</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U17" t="n">
-        <v>3168.773180116325</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="V17" t="n">
-        <v>2826.666370819844</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="W17" t="n">
-        <v>2455.667335788131</v>
+        <v>2950.505223136918</v>
       </c>
       <c r="X17" t="n">
-        <v>2066.214730721188</v>
+        <v>2561.052618069974</v>
       </c>
       <c r="Y17" t="n">
-        <v>1669.724021641789</v>
+        <v>2164.561908990575</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K18" t="n">
-        <v>353.4403504068808</v>
+        <v>350.6704201285324</v>
       </c>
       <c r="L18" t="n">
-        <v>905.8728192384366</v>
+        <v>903.1028889600883</v>
       </c>
       <c r="M18" t="n">
-        <v>1614.008289530776</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N18" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O18" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P18" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q18" t="n">
         <v>2352.277072610002</v>
@@ -5679,13 +5679,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L19" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M19" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N19" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O19" t="n">
         <v>1044.49322140544</v>
@@ -5694,31 +5694,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q19" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R19" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S19" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T19" t="n">
-        <v>1110.515389561699</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U19" t="n">
-        <v>825.0913962151051</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V19" t="n">
-        <v>825.0913962151051</v>
+        <v>436.254373588837</v>
       </c>
       <c r="W19" t="n">
-        <v>541.7609941462827</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="X19" t="n">
-        <v>307.6806719292657</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.56861074590907</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1898.517673207239</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C20" t="n">
-        <v>1898.517673207239</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D20" t="n">
-        <v>1740.905553214629</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E20" t="n">
-        <v>1338.322028331173</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F20" t="n">
-        <v>921.4275898611513</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G20" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H20" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I20" t="n">
         <v>75.96123154786345</v>
@@ -5755,7 +5755,7 @@
         <v>270.9233280874835</v>
       </c>
       <c r="K20" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L20" t="n">
         <v>1292.177839612517</v>
@@ -5770,34 +5770,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P20" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q20" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R20" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S20" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T20" t="n">
-        <v>3798.061577393172</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U20" t="n">
-        <v>3798.061577393172</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V20" t="n">
-        <v>3455.954768096691</v>
+        <v>3082.370714289337</v>
       </c>
       <c r="W20" t="n">
-        <v>3084.955733064978</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="X20" t="n">
-        <v>2695.503127998035</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y20" t="n">
-        <v>2299.012418918636</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K21" t="n">
-        <v>75.96123154786345</v>
+        <v>353.4403504068805</v>
       </c>
       <c r="L21" t="n">
-        <v>628.3937003794192</v>
+        <v>905.8728192384364</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.529170671759</v>
+        <v>1614.008289530776</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.529170671759</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O21" t="n">
-        <v>1928.512430234351</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P21" t="n">
         <v>2352.277072610002</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.9078077971474</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="C22" t="n">
-        <v>672.9078077971474</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="D22" t="n">
-        <v>556.828728165317</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="E22" t="n">
-        <v>401.2699160245195</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="F22" t="n">
-        <v>243.9439812374924</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G22" t="n">
         <v>75.96123154786345</v>
@@ -5916,13 +5916,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L22" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M22" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N22" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O22" t="n">
         <v>1044.49322140544</v>
@@ -5931,31 +5931,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q22" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R22" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S22" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T22" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U22" t="n">
-        <v>1222.217555045145</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V22" t="n">
-        <v>956.2382098659697</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W22" t="n">
-        <v>672.9078077971474</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X22" t="n">
-        <v>672.9078077971474</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="Y22" t="n">
-        <v>672.9078077971474</v>
+        <v>153.4034922335366</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1269.229275930392</v>
+        <v>1984.920139034228</v>
       </c>
       <c r="C23" t="n">
-        <v>1213.32806902572</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D23" t="n">
-        <v>1213.32806902572</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E23" t="n">
-        <v>810.7445441422649</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F23" t="n">
-        <v>393.8501056722426</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G23" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H23" t="n">
         <v>75.96123154786345</v>
@@ -5989,16 +5989,16 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130491</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
         <v>2575.851817818621</v>
@@ -6016,25 +6016,25 @@
         <v>3798.061577393172</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U23" t="n">
-        <v>3168.773180116325</v>
+        <v>3542.35723392368</v>
       </c>
       <c r="V23" t="n">
-        <v>2826.666370819844</v>
+        <v>3542.35723392368</v>
       </c>
       <c r="W23" t="n">
-        <v>2455.667335788131</v>
+        <v>3171.358198891967</v>
       </c>
       <c r="X23" t="n">
-        <v>2066.214730721188</v>
+        <v>2781.905593825024</v>
       </c>
       <c r="Y23" t="n">
-        <v>1669.724021641789</v>
+        <v>2385.414884745625</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L24" t="n">
-        <v>313.8895596758445</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.025029968184</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.29381304741</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P24" t="n">
         <v>2352.277072610002</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.0269961284295</v>
+        <v>813.8974751704875</v>
       </c>
       <c r="C25" t="n">
-        <v>99.82187819441867</v>
+        <v>813.8974751704875</v>
       </c>
       <c r="D25" t="n">
-        <v>75.96123154786345</v>
+        <v>658.2643620730023</v>
       </c>
       <c r="E25" t="n">
-        <v>75.96123154786345</v>
+        <v>502.7055499322048</v>
       </c>
       <c r="F25" t="n">
-        <v>75.96123154786345</v>
+        <v>502.7055499322048</v>
       </c>
       <c r="G25" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H25" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I25" t="n">
         <v>75.96123154786345</v>
@@ -6171,28 +6171,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R25" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S25" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T25" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U25" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V25" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="W25" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="X25" t="n">
-        <v>678.3470760030874</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="Y25" t="n">
-        <v>455.2350148197307</v>
+        <v>999.1054938617888</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2404.502628619254</v>
+        <v>2519.522183495031</v>
       </c>
       <c r="C26" t="n">
-        <v>2011.327127122184</v>
+        <v>2126.346681997961</v>
       </c>
       <c r="D26" t="n">
-        <v>1625.885998338852</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E26" t="n">
-        <v>1223.302473455396</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F26" t="n">
-        <v>806.4080349853741</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G26" t="n">
-        <v>393.8501056722426</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H26" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I26" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
@@ -6238,40 +6238,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N26" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O26" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340868</v>
+        <v>3793.064957510368</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585818</v>
+        <v>3572.211981755318</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116325</v>
+        <v>3316.507638285826</v>
       </c>
       <c r="V26" t="n">
-        <v>3168.773180116325</v>
+        <v>3316.507638285826</v>
       </c>
       <c r="W26" t="n">
-        <v>3168.773180116325</v>
+        <v>3316.507638285826</v>
       </c>
       <c r="X26" t="n">
-        <v>3168.773180116325</v>
+        <v>3316.507638285826</v>
       </c>
       <c r="Y26" t="n">
-        <v>2804.99737433065</v>
+        <v>2920.016929206427</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L27" t="n">
-        <v>313.8895596758445</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M27" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2986.543878187784</v>
+        <v>246.1663494818742</v>
       </c>
       <c r="C28" t="n">
-        <v>2986.543878187784</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D28" t="n">
-        <v>2986.543878187784</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E28" t="n">
-        <v>2830.985066046987</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F28" t="n">
-        <v>2830.985066046987</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G28" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H28" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I28" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M28" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N28" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O28" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P28" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R28" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S28" t="n">
-        <v>3488.271420568131</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T28" t="n">
-        <v>3253.711577637592</v>
+        <v>1173.990744920143</v>
       </c>
       <c r="U28" t="n">
-        <v>3171.751896879085</v>
+        <v>888.5667515735491</v>
       </c>
       <c r="V28" t="n">
-        <v>3171.751896879085</v>
+        <v>888.5667515735491</v>
       </c>
       <c r="W28" t="n">
-        <v>3171.751896879085</v>
+        <v>888.5667515735491</v>
       </c>
       <c r="X28" t="n">
-        <v>3171.751896879085</v>
+        <v>654.4864293565322</v>
       </c>
       <c r="Y28" t="n">
-        <v>3171.751896879085</v>
+        <v>431.3743681731755</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1625.885998338852</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C29" t="n">
-        <v>1625.885998338852</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D29" t="n">
-        <v>1625.885998338852</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E29" t="n">
-        <v>1223.302473455396</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F29" t="n">
-        <v>806.4080349853741</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G29" t="n">
-        <v>393.8501056722426</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H29" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I29" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612517</v>
@@ -6481,13 +6481,13 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
         <v>3645.330499340868</v>
@@ -6496,19 +6496,19 @@
         <v>3424.477523585818</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116325</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819844</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788131</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721188</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y29" t="n">
-        <v>1669.724021641789</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K30" t="n">
-        <v>446.9164895271324</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L30" t="n">
-        <v>999.3489583586882</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M30" t="n">
-        <v>1707.484428651028</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>834.8307059483216</v>
+        <v>401.7994625793595</v>
       </c>
       <c r="C31" t="n">
-        <v>834.8307059483216</v>
+        <v>231.5943446453487</v>
       </c>
       <c r="D31" t="n">
-        <v>834.8307059483216</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E31" t="n">
-        <v>679.2718938075241</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F31" t="n">
-        <v>521.945959020497</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G31" t="n">
-        <v>353.9632093308679</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H31" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I31" t="n">
         <v>75.96123154786345</v>
@@ -6648,25 +6648,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S31" t="n">
-        <v>1100.810051127497</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T31" t="n">
-        <v>1100.810051127497</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.810051127497</v>
+        <v>936.7935616985515</v>
       </c>
       <c r="V31" t="n">
-        <v>834.8307059483216</v>
+        <v>670.8142165193757</v>
       </c>
       <c r="W31" t="n">
-        <v>834.8307059483216</v>
+        <v>401.7994625793595</v>
       </c>
       <c r="X31" t="n">
-        <v>834.8307059483216</v>
+        <v>401.7994625793595</v>
       </c>
       <c r="Y31" t="n">
-        <v>834.8307059483216</v>
+        <v>401.7994625793595</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2371.787725325531</v>
+        <v>1269.229275930392</v>
       </c>
       <c r="C32" t="n">
-        <v>1978.612223828461</v>
+        <v>876.0537744333228</v>
       </c>
       <c r="D32" t="n">
-        <v>1593.171095045129</v>
+        <v>490.6126456499906</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.587570161673</v>
+        <v>88.02912076653507</v>
       </c>
       <c r="F32" t="n">
-        <v>773.693131691651</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G32" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H32" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J32" t="n">
-        <v>270.923328087484</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130501</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L32" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O32" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T32" t="n">
-        <v>3424.477523585819</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.773180116326</v>
+        <v>3168.773180116325</v>
       </c>
       <c r="V32" t="n">
-        <v>3168.773180116326</v>
+        <v>2826.666370819844</v>
       </c>
       <c r="W32" t="n">
-        <v>3168.773180116326</v>
+        <v>2455.667335788131</v>
       </c>
       <c r="X32" t="n">
-        <v>3168.773180116326</v>
+        <v>2066.214730721188</v>
       </c>
       <c r="Y32" t="n">
-        <v>2772.282471036927</v>
+        <v>1669.724021641789</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794192</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671759</v>
+        <v>927.1773593405077</v>
       </c>
       <c r="N33" t="n">
-        <v>2074.797953750985</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.6842095071841</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C34" t="n">
-        <v>544.4790915731733</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D34" t="n">
-        <v>388.845978475688</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E34" t="n">
-        <v>233.2871663348905</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H34" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K34" t="n">
         <v>188.6896288950475</v>
@@ -6891,19 +6891,19 @@
         <v>1222.217555045145</v>
       </c>
       <c r="U34" t="n">
-        <v>1222.217555045145</v>
+        <v>1082.463362196235</v>
       </c>
       <c r="V34" t="n">
-        <v>1222.217555045145</v>
+        <v>816.4840170170594</v>
       </c>
       <c r="W34" t="n">
-        <v>1222.217555045145</v>
+        <v>533.153614948237</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.004289381842</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="Y34" t="n">
-        <v>899.8922281984853</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1382.155346017174</v>
+        <v>1898.517673207239</v>
       </c>
       <c r="C35" t="n">
-        <v>988.9798445201044</v>
+        <v>1505.34217171017</v>
       </c>
       <c r="D35" t="n">
-        <v>603.5387157367721</v>
+        <v>1119.901042926838</v>
       </c>
       <c r="E35" t="n">
-        <v>603.5387157367721</v>
+        <v>717.3175180433821</v>
       </c>
       <c r="F35" t="n">
-        <v>603.5387157367721</v>
+        <v>300.4230795733598</v>
       </c>
       <c r="G35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I35" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6955,34 +6955,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U35" t="n">
-        <v>3281.699250203107</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V35" t="n">
-        <v>2939.592440906626</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W35" t="n">
-        <v>2568.593405874913</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X35" t="n">
-        <v>2179.14080080797</v>
+        <v>2695.503127998035</v>
       </c>
       <c r="Y35" t="n">
-        <v>1782.650091728571</v>
+        <v>2299.012418918636</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L36" t="n">
-        <v>313.8895596758445</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M36" t="n">
-        <v>1022.025029968184</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.29381304741</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3611.577391508027</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C37" t="n">
-        <v>3441.372273574016</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D37" t="n">
-        <v>3285.739160476531</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E37" t="n">
-        <v>3130.180348335733</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F37" t="n">
-        <v>2972.854413548706</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G37" t="n">
-        <v>2804.871663859077</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K37" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L37" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M37" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N37" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O37" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P37" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q37" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R37" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S37" t="n">
-        <v>3798.061577393172</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T37" t="n">
-        <v>3798.061577393172</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U37" t="n">
-        <v>3798.061577393172</v>
+        <v>738.7055703569567</v>
       </c>
       <c r="V37" t="n">
-        <v>3798.061577393172</v>
+        <v>472.726225177781</v>
       </c>
       <c r="W37" t="n">
-        <v>3798.061577393172</v>
+        <v>189.3958231089586</v>
       </c>
       <c r="X37" t="n">
-        <v>3798.061577393172</v>
+        <v>189.3958231089586</v>
       </c>
       <c r="Y37" t="n">
-        <v>3796.785410199328</v>
+        <v>189.3958231089586</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2371.787725325531</v>
+        <v>2240.624482503721</v>
       </c>
       <c r="C38" t="n">
-        <v>1978.612223828461</v>
+        <v>1847.448981006652</v>
       </c>
       <c r="D38" t="n">
-        <v>1593.171095045129</v>
+        <v>1462.007852223319</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.587570161673</v>
+        <v>1059.424327339864</v>
       </c>
       <c r="F38" t="n">
-        <v>773.693131691651</v>
+        <v>642.5298888698416</v>
       </c>
       <c r="G38" t="n">
-        <v>361.1352023785196</v>
+        <v>229.9719595567101</v>
       </c>
       <c r="H38" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K38" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M38" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O38" t="n">
         <v>3115.769891361771</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T38" t="n">
-        <v>3424.477523585819</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U38" t="n">
-        <v>3168.773180116326</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V38" t="n">
-        <v>3168.773180116326</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="W38" t="n">
-        <v>3168.773180116326</v>
+        <v>3427.06254236146</v>
       </c>
       <c r="X38" t="n">
-        <v>3168.773180116326</v>
+        <v>3037.609937294517</v>
       </c>
       <c r="Y38" t="n">
-        <v>2772.282471036927</v>
+        <v>2641.119228215118</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L39" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.529170671759</v>
+        <v>1850.565086151332</v>
       </c>
       <c r="N39" t="n">
-        <v>2074.797953750985</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O39" t="n">
         <v>2352.277072610002</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.96123154786346</v>
+        <v>231.5943446453487</v>
       </c>
       <c r="C40" t="n">
-        <v>75.96123154786346</v>
+        <v>231.5943446453487</v>
       </c>
       <c r="D40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K40" t="n">
         <v>188.6896288950475</v>
       </c>
       <c r="L40" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M40" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N40" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O40" t="n">
         <v>1044.49322140544</v>
@@ -7353,31 +7353,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T40" t="n">
-        <v>987.6577121146066</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U40" t="n">
-        <v>702.2337187680125</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="V40" t="n">
-        <v>436.2543735888368</v>
+        <v>721.6783669354311</v>
       </c>
       <c r="W40" t="n">
-        <v>152.9239715200144</v>
+        <v>438.3479648666087</v>
       </c>
       <c r="X40" t="n">
-        <v>75.96123154786346</v>
+        <v>416.80236333665</v>
       </c>
       <c r="Y40" t="n">
-        <v>75.96123154786346</v>
+        <v>416.80236333665</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2396.359143081699</v>
+        <v>1862.342431361203</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.183641584629</v>
+        <v>1469.166929864134</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.742512801297</v>
+        <v>1083.725801080802</v>
       </c>
       <c r="E41" t="n">
-        <v>1215.158987917841</v>
+        <v>681.1422761973461</v>
       </c>
       <c r="F41" t="n">
-        <v>798.2645494478193</v>
+        <v>264.2478377273238</v>
       </c>
       <c r="G41" t="n">
-        <v>385.7066201346877</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="H41" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="I41" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J41" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="K41" t="n">
         <v>502.2052330358746</v>
       </c>
       <c r="L41" t="n">
-        <v>1089.072257535342</v>
+        <v>885.0035627347689</v>
       </c>
       <c r="M41" t="n">
-        <v>1739.161922324444</v>
+        <v>1535.093227523871</v>
       </c>
       <c r="N41" t="n">
-        <v>2372.746235741447</v>
+        <v>2168.677540940873</v>
       </c>
       <c r="O41" t="n">
-        <v>2912.664309284596</v>
+        <v>2708.595614484022</v>
       </c>
       <c r="P41" t="n">
-        <v>3346.09576705346</v>
+        <v>3142.027072252887</v>
       </c>
       <c r="Q41" t="n">
-        <v>3390.887300515427</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="R41" t="n">
-        <v>3390.887300515427</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="S41" t="n">
-        <v>3390.887300515427</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="T41" t="n">
-        <v>3390.887300515427</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="U41" t="n">
-        <v>3156.810783180355</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="V41" t="n">
-        <v>3156.810783180355</v>
+        <v>3048.780491218943</v>
       </c>
       <c r="W41" t="n">
-        <v>2785.811748148642</v>
+        <v>3048.780491218943</v>
       </c>
       <c r="X41" t="n">
-        <v>2396.359143081699</v>
+        <v>2659.327886151999</v>
       </c>
       <c r="Y41" t="n">
-        <v>2396.359143081699</v>
+        <v>2262.8371770726</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>852.5928676934657</v>
+        <v>852.5928676934656</v>
       </c>
       <c r="C42" t="n">
-        <v>701.9386372535579</v>
+        <v>701.9386372535578</v>
       </c>
       <c r="D42" t="n">
-        <v>571.8496698750382</v>
+        <v>571.8496698750381</v>
       </c>
       <c r="E42" t="n">
-        <v>435.4031789859259</v>
+        <v>435.4031789859258</v>
       </c>
       <c r="F42" t="n">
-        <v>310.9713728690577</v>
+        <v>310.9713728690576</v>
       </c>
       <c r="G42" t="n">
-        <v>191.2351654868528</v>
+        <v>191.2351654868527</v>
       </c>
       <c r="H42" t="n">
-        <v>106.0631456757841</v>
+        <v>106.063145675784</v>
       </c>
       <c r="I42" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J42" t="n">
-        <v>67.81774601030854</v>
+        <v>210.8984035106132</v>
       </c>
       <c r="K42" t="n">
-        <v>67.81774601030854</v>
+        <v>581.8536614898821</v>
       </c>
       <c r="L42" t="n">
-        <v>620.2502148418642</v>
+        <v>1134.286130321438</v>
       </c>
       <c r="M42" t="n">
-        <v>1328.385685134204</v>
+        <v>1134.286130321438</v>
       </c>
       <c r="N42" t="n">
-        <v>2066.65446821343</v>
+        <v>1134.286130321438</v>
       </c>
       <c r="O42" t="n">
-        <v>2066.65446821343</v>
+        <v>1603.094873714873</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.133587072447</v>
+        <v>2069.281934384559</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.133587072447</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.81774601030854</v>
+        <v>225.1436807973355</v>
       </c>
       <c r="C43" t="n">
-        <v>67.81774601030854</v>
+        <v>225.1436807973355</v>
       </c>
       <c r="D43" t="n">
-        <v>67.81774601030854</v>
+        <v>225.1436807973355</v>
       </c>
       <c r="E43" t="n">
-        <v>67.81774601030854</v>
+        <v>225.1436807973355</v>
       </c>
       <c r="F43" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="G43" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="H43" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="I43" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J43" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="K43" t="n">
-        <v>180.5461433574926</v>
+        <v>180.5461433574925</v>
       </c>
       <c r="L43" t="n">
-        <v>384.2066430046772</v>
+        <v>384.2066430046771</v>
       </c>
       <c r="M43" t="n">
         <v>612.1800790580246</v>
@@ -7596,25 +7596,25 @@
         <v>1214.074069507591</v>
       </c>
       <c r="S43" t="n">
-        <v>1214.074069507591</v>
+        <v>1015.986078165996</v>
       </c>
       <c r="T43" t="n">
-        <v>1214.074069507591</v>
+        <v>1015.986078165996</v>
       </c>
       <c r="U43" t="n">
-        <v>928.6500761609966</v>
+        <v>1015.986078165996</v>
       </c>
       <c r="V43" t="n">
-        <v>808.3405314795045</v>
+        <v>750.0067329868201</v>
       </c>
       <c r="W43" t="n">
-        <v>525.0101294106821</v>
+        <v>466.6763309179977</v>
       </c>
       <c r="X43" t="n">
-        <v>290.9298071936652</v>
+        <v>410.3516994886368</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.81774601030854</v>
+        <v>410.3516994886368</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1600.600116701174</v>
+        <v>2108.79517307402</v>
       </c>
       <c r="C44" t="n">
-        <v>1600.600116701174</v>
+        <v>1715.619671576951</v>
       </c>
       <c r="D44" t="n">
-        <v>1215.158987917841</v>
+        <v>1330.178542793619</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.158987917841</v>
+        <v>1330.178542793619</v>
       </c>
       <c r="F44" t="n">
-        <v>798.2645494478193</v>
+        <v>913.2841043235964</v>
       </c>
       <c r="G44" t="n">
-        <v>385.7066201346877</v>
+        <v>500.7261750104649</v>
       </c>
       <c r="H44" t="n">
-        <v>67.81774601030854</v>
+        <v>182.8373008860857</v>
       </c>
       <c r="I44" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J44" t="n">
-        <v>67.81774601030854</v>
+        <v>262.7798425499286</v>
       </c>
       <c r="K44" t="n">
-        <v>502.2052330358746</v>
+        <v>697.1673295754947</v>
       </c>
       <c r="L44" t="n">
-        <v>1089.072257535342</v>
+        <v>885.0035627347689</v>
       </c>
       <c r="M44" t="n">
-        <v>1739.161922324444</v>
+        <v>1535.093227523871</v>
       </c>
       <c r="N44" t="n">
-        <v>2372.746235741447</v>
+        <v>2168.677540940873</v>
       </c>
       <c r="O44" t="n">
-        <v>2912.664309284596</v>
+        <v>2708.595614484022</v>
       </c>
       <c r="P44" t="n">
-        <v>3142.02707225289</v>
+        <v>3142.027072252887</v>
       </c>
       <c r="Q44" t="n">
-        <v>3390.887300515427</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="R44" t="n">
-        <v>3390.887300515427</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="S44" t="n">
-        <v>3366.395759289656</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="T44" t="n">
-        <v>3366.395759289656</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="U44" t="n">
-        <v>3110.691415820163</v>
+        <v>3236.845296516844</v>
       </c>
       <c r="V44" t="n">
-        <v>2768.584606523682</v>
+        <v>2894.738487220362</v>
       </c>
       <c r="W44" t="n">
-        <v>2397.585571491969</v>
+        <v>2894.738487220362</v>
       </c>
       <c r="X44" t="n">
-        <v>2397.585571491969</v>
+        <v>2505.285882153419</v>
       </c>
       <c r="Y44" t="n">
-        <v>2001.094862412571</v>
+        <v>2108.79517307402</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>852.5928676934657</v>
+        <v>852.5928676934656</v>
       </c>
       <c r="C45" t="n">
-        <v>701.9386372535579</v>
+        <v>701.9386372535578</v>
       </c>
       <c r="D45" t="n">
-        <v>571.8496698750382</v>
+        <v>571.8496698750381</v>
       </c>
       <c r="E45" t="n">
-        <v>435.4031789859259</v>
+        <v>435.4031789859258</v>
       </c>
       <c r="F45" t="n">
-        <v>310.9713728690577</v>
+        <v>310.9713728690576</v>
       </c>
       <c r="G45" t="n">
-        <v>191.2351654868528</v>
+        <v>191.2351654868527</v>
       </c>
       <c r="H45" t="n">
-        <v>106.0631456757841</v>
+        <v>106.063145675784</v>
       </c>
       <c r="I45" t="n">
-        <v>67.81774601030854</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J45" t="n">
-        <v>67.81774601030854</v>
+        <v>210.8984035106132</v>
       </c>
       <c r="K45" t="n">
-        <v>67.81774601030854</v>
+        <v>581.8536614898821</v>
       </c>
       <c r="L45" t="n">
-        <v>547.6944837609442</v>
+        <v>1134.286130321438</v>
       </c>
       <c r="M45" t="n">
-        <v>547.6944837609442</v>
+        <v>1477.298674821966</v>
       </c>
       <c r="N45" t="n">
-        <v>1285.96326684017</v>
+        <v>1477.298674821966</v>
       </c>
       <c r="O45" t="n">
-        <v>1877.946526402762</v>
+        <v>2069.281934384559</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.133587072447</v>
+        <v>2069.281934384559</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.133587072447</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2693.108106668389</v>
+        <v>1027.589883622445</v>
       </c>
       <c r="C46" t="n">
-        <v>2693.108106668389</v>
+        <v>857.3847656884341</v>
       </c>
       <c r="D46" t="n">
-        <v>2693.108106668389</v>
+        <v>701.7516525909489</v>
       </c>
       <c r="E46" t="n">
-        <v>2537.549294527591</v>
+        <v>546.1928404501514</v>
       </c>
       <c r="F46" t="n">
-        <v>2537.549294527591</v>
+        <v>388.8669056631243</v>
       </c>
       <c r="G46" t="n">
-        <v>2369.566544837962</v>
+        <v>220.8841559734952</v>
       </c>
       <c r="H46" t="n">
-        <v>2369.566544837962</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="I46" t="n">
-        <v>2244.630977018145</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J46" t="n">
-        <v>2244.630977018145</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="K46" t="n">
-        <v>2357.359374365329</v>
+        <v>180.5461433574925</v>
       </c>
       <c r="L46" t="n">
-        <v>2561.019874012513</v>
+        <v>384.2066430046771</v>
       </c>
       <c r="M46" t="n">
-        <v>2788.993310065861</v>
+        <v>612.1800790580246</v>
       </c>
       <c r="N46" t="n">
-        <v>3012.873700399222</v>
+        <v>836.0604693913854</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.162966875722</v>
+        <v>1036.349735867885</v>
       </c>
       <c r="P46" t="n">
-        <v>3365.19916484168</v>
+        <v>1188.385933833843</v>
       </c>
       <c r="Q46" t="n">
-        <v>3390.887300515427</v>
+        <v>1214.074069507591</v>
       </c>
       <c r="R46" t="n">
-        <v>3279.18513503198</v>
+        <v>1214.074069507591</v>
       </c>
       <c r="S46" t="n">
-        <v>3081.097143690386</v>
+        <v>1027.589883622445</v>
       </c>
       <c r="T46" t="n">
-        <v>2846.537300759847</v>
+        <v>1027.589883622445</v>
       </c>
       <c r="U46" t="n">
-        <v>2693.108106668389</v>
+        <v>1027.589883622445</v>
       </c>
       <c r="V46" t="n">
-        <v>2693.108106668389</v>
+        <v>1027.589883622445</v>
       </c>
       <c r="W46" t="n">
-        <v>2693.108106668389</v>
+        <v>1027.589883622445</v>
       </c>
       <c r="X46" t="n">
-        <v>2693.108106668389</v>
+        <v>1027.589883622445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2693.108106668389</v>
+        <v>1027.589883622445</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>597.9750644161435</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>393.9156246749214</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>325.9393879617826</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>162.1578292717207</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,19 +8297,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>560.2818744604607</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>263.585098225357</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8458,7 +8458,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>281.329912376922</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>89.90975703142958</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>179.0738312465417</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>69.98335850775642</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29893266580325</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>153.5819063131595</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>51.06865900996807</v>
       </c>
       <c r="O12" t="n">
-        <v>504.2603939961811</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>61.89737899377413</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.15198862225301</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>69.98335850775642</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29893266580325</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>61.42255393364699</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>698.5189200297048</v>
+        <v>58.96816846528262</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>145.6823968578448</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.15198862225301</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406337</v>
       </c>
       <c r="K18" t="n">
-        <v>318.145427193914</v>
+        <v>315.3475178218449</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9254,16 +9254,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O18" t="n">
-        <v>16.46232962463526</v>
+        <v>16.46232962463523</v>
       </c>
       <c r="P18" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406337</v>
       </c>
       <c r="K21" t="n">
-        <v>37.86348895248232</v>
+        <v>318.1454271939136</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9491,16 +9491,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>2.048060461573968</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463523</v>
       </c>
       <c r="P21" t="n">
-        <v>453.9509915085703</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.09263685995592</v>
+        <v>50.0926368599559</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9719,22 +9719,22 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>308.9466910931282</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>50.09263685995592</v>
@@ -9895,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294511</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P27" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N30" t="n">
-        <v>55.39087298317197</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P30" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>37.86348895248232</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>20.498343894047</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>95.05587899624894</v>
       </c>
       <c r="O33" t="n">
-        <v>296.744267866067</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>484.755730865248</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463526</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10913,16 +10913,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>508.8278447632606</v>
       </c>
       <c r="O39" t="n">
-        <v>296.744267866067</v>
+        <v>16.46232962463523</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983202</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>50.0926368599559</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>66.85930902235421</v>
+        <v>66.8593090223542</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>651.5514946987026</v>
+        <v>445.4214999506488</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>125.0813906814001</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O42" t="n">
-        <v>16.46232962463526</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P42" t="n">
-        <v>306.1878364412638</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>66.85930902235421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>248.4900893045679</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11314,7 +11314,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>295.875989999462</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>505.2223214199416</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>11.21154561935391</v>
+        <v>357.6888632966552</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>80.44247643311303</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.7846186869749</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>127.4501971105622</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>10.71618390407457</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23424,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>54.36459150084038</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>128.438172086704</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.25679452515965</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.1938612782172</v>
+        <v>117.6900996594426</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.8608923274312</v>
       </c>
       <c r="T13" t="n">
         <v>232.8894020508675</v>
@@ -23475,10 +23475,10 @@
         <v>282.5783724456766</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>365.1983403412368</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.7846186869749</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>127.4501971105622</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.12819665185051</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1754815281552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>249.3064321428038</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>110.2227180125245</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>63.48782359819984</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4609377894556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.9406481689638</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>128.438172086704</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.25679452515965</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>358.656723531595</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>70.46971625711146</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.8346330983231</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23913,7 +23913,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J19" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S19" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T19" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>144.6878279990934</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>225.5507187028151</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1473000347972</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>170.5052547277653</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>39.15849313099832</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>79.08483736034032</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H22" t="n">
         <v>151.5357458635549</v>
@@ -24150,7 +24150,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J22" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>333.9015516464735</v>
+        <v>100.6766793060399</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
         <v>113.8693593270195</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>130.4547417864207</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3029221927327</v>
+        <v>19.04800499740921</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>11.08509183685201</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
         <v>232.2142445012334</v>
@@ -24429,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>146.2571135878051</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.38775426078672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
         <v>151.5357458635549</v>
@@ -24624,7 +24624,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>184.4697024774812</v>
       </c>
       <c r="U28" t="n">
-        <v>201.429669462206</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24666,10 +24666,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>353.090155184375</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>331.2469518675421</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
         <v>11.08509183685201</v>
@@ -24888,19 +24888,19 @@
         <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>75.91368254970732</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>14.17249164751814</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>400.7782837588371</v>
       </c>
       <c r="G32" t="n">
-        <v>32.3877542607858</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
         <v>113.8693593270195</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.3029221927327</v>
@@ -25131,16 +25131,16 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>144.213102492707</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.5183859881763</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>186.2151204747587</v>
       </c>
       <c r="H35" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>111.7968093859136</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>71.05569285890407</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
         <v>123.6862121416195</v>
@@ -25362,25 +25362,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.6175350496177</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>32.38775426078583</v>
+        <v>162.2393646543772</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>155.5464064224173</v>
+        <v>210.4093734801876</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>213.9665592201549</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>21.41154787307562</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25797,7 +25797,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3029221927327</v>
@@ -25809,7 +25809,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>144.2131024927069</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>175.9781338797794</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>126.957141458268</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>100.6457160762029</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,28 +26025,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>11.48776740188455</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>130.674851262585</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666175.6815745751</v>
+        <v>666175.6815745748</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666175.6815745751</v>
+        <v>666175.6815745749</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>707574.844968315</v>
+        <v>707574.8449683147</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>707574.8449683147</v>
+        <v>707574.844968315</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>707574.8449683149</v>
+        <v>707574.8449683145</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>707574.8449683146</v>
+        <v>707574.8449683149</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>707574.8449683147</v>
+        <v>707574.8449683149</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>707574.8449683147</v>
+        <v>707574.844968315</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>668172.5470590594</v>
+        <v>668172.5470590591</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>668172.5470590594</v>
+        <v>668172.5470590591</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="C2" t="n">
         <v>468863.6630427276</v>
@@ -26322,22 +26322,22 @@
         <v>468863.6630427277</v>
       </c>
       <c r="E2" t="n">
-        <v>348728.2257477886</v>
+        <v>348728.2257477883</v>
       </c>
       <c r="F2" t="n">
-        <v>348728.2257477887</v>
+        <v>348728.2257477885</v>
       </c>
       <c r="G2" t="n">
+        <v>374378.2378845813</v>
+      </c>
+      <c r="H2" t="n">
         <v>374378.2378845812</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>374378.2378845813</v>
       </c>
-      <c r="I2" t="n">
-        <v>374378.2378845811</v>
-      </c>
       <c r="J2" t="n">
-        <v>374378.2378845811</v>
+        <v>374378.2378845813</v>
       </c>
       <c r="K2" t="n">
         <v>374378.2378845813</v>
@@ -26349,13 +26349,13 @@
         <v>374378.2378845813</v>
       </c>
       <c r="N2" t="n">
-        <v>374378.2378845812</v>
+        <v>374378.2378845811</v>
       </c>
       <c r="O2" t="n">
-        <v>353938.8432720792</v>
+        <v>353938.8432720791</v>
       </c>
       <c r="P2" t="n">
-        <v>353938.8432720792</v>
+        <v>353938.843272079</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125792.4511491545</v>
+        <v>125792.451149154</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96028.8123032018</v>
+        <v>96028.81230320226</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>154739.4343656035</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>63873.40219459817</v>
+        <v>63873.40219459806</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>76605.27390823119</v>
+        <v>76605.27390823117</v>
       </c>
       <c r="F4" t="n">
-        <v>76605.27390823119</v>
+        <v>76605.27390823117</v>
       </c>
       <c r="G4" t="n">
         <v>74648.49911963029</v>
       </c>
       <c r="H4" t="n">
+        <v>74648.49911963027</v>
+      </c>
+      <c r="I4" t="n">
         <v>74648.49911963029</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74648.49911963027</v>
       </c>
       <c r="J4" t="n">
         <v>74648.49911963027</v>
       </c>
       <c r="K4" t="n">
-        <v>74648.49911963027</v>
+        <v>74648.49911963029</v>
       </c>
       <c r="L4" t="n">
         <v>74648.49911963029</v>
@@ -26456,10 +26456,10 @@
         <v>74648.49911963029</v>
       </c>
       <c r="O4" t="n">
-        <v>69787.82040742028</v>
+        <v>69787.82040742025</v>
       </c>
       <c r="P4" t="n">
-        <v>69787.82040742028</v>
+        <v>69787.82040742025</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>52878.24511119565</v>
+        <v>52878.24511119562</v>
       </c>
       <c r="F5" t="n">
-        <v>52878.24511119565</v>
+        <v>52878.24511119562</v>
       </c>
       <c r="G5" t="n">
         <v>60977.55903357454</v>
@@ -26499,19 +26499,19 @@
         <v>60977.55903357454</v>
       </c>
       <c r="L5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="M5" t="n">
         <v>60977.55903357454</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="O5" t="n">
-        <v>54788.5100250328</v>
+        <v>54788.51002503277</v>
       </c>
       <c r="P5" t="n">
-        <v>54788.5100250328</v>
+        <v>54788.51002503277</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21939.45677785791</v>
+        <v>-21939.45677785811</v>
       </c>
       <c r="C6" t="n">
-        <v>176256.3492138869</v>
+        <v>176256.349213887</v>
       </c>
       <c r="D6" t="n">
-        <v>176256.3492138871</v>
+        <v>176256.349213887</v>
       </c>
       <c r="E6" t="n">
-        <v>93452.25557920722</v>
+        <v>92990.19620499619</v>
       </c>
       <c r="F6" t="n">
-        <v>219244.7067283619</v>
+        <v>218782.6473541504</v>
       </c>
       <c r="G6" t="n">
-        <v>142723.3674281746</v>
+        <v>142359.9619467968</v>
       </c>
       <c r="H6" t="n">
-        <v>238752.1797313765</v>
+        <v>238388.7742499989</v>
       </c>
       <c r="I6" t="n">
-        <v>238752.1797313764</v>
+        <v>238388.774249999</v>
       </c>
       <c r="J6" t="n">
-        <v>84012.74536577298</v>
+        <v>83649.33988439549</v>
       </c>
       <c r="K6" t="n">
-        <v>238752.1797313765</v>
+        <v>238388.774249999</v>
       </c>
       <c r="L6" t="n">
-        <v>238752.1797313765</v>
+        <v>238388.774249999</v>
       </c>
       <c r="M6" t="n">
-        <v>174878.7775367784</v>
+        <v>174515.372055401</v>
       </c>
       <c r="N6" t="n">
-        <v>238752.1797313764</v>
+        <v>238388.7742499987</v>
       </c>
       <c r="O6" t="n">
-        <v>229362.5128396261</v>
+        <v>228920.4943020467</v>
       </c>
       <c r="P6" t="n">
-        <v>229362.5128396262</v>
+        <v>228920.4943020465</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>61.31918088812749</v>
+        <v>61.31918088812714</v>
       </c>
       <c r="F3" t="n">
-        <v>61.31918088812749</v>
+        <v>61.31918088812714</v>
       </c>
       <c r="G3" t="n">
         <v>148.9460117980881</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>847.7218251288565</v>
+        <v>847.721825128856</v>
       </c>
       <c r="F4" t="n">
-        <v>847.7218251288565</v>
+        <v>847.721825128856</v>
       </c>
       <c r="G4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="H4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="I4" t="n">
         <v>949.5153943482931</v>
       </c>
       <c r="J4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="K4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="L4" t="n">
         <v>949.5153943482931</v>
       </c>
-      <c r="K4" t="n">
-        <v>949.5153943482931</v>
-      </c>
-      <c r="L4" t="n">
-        <v>949.5153943482933</v>
-      </c>
       <c r="M4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="N4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="O4" t="n">
-        <v>847.7218251288567</v>
+        <v>847.721825128856</v>
       </c>
       <c r="P4" t="n">
-        <v>847.7218251288567</v>
+        <v>847.721825128856</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>61.31918088812749</v>
+        <v>61.31918088812714</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87.62683090996057</v>
+        <v>87.62683090996096</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>256.3096988595617</v>
+        <v>256.3096988595611</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>101.7935692194366</v>
+        <v>101.7935692194371</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>256.3096988595615</v>
+        <v>256.3096988595611</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>256.3096988595617</v>
+        <v>256.3096988595611</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>101.7935692194366</v>
+        <v>101.7935692194371</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>93.4204272758717</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>215.3043396808475</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27554,13 +27554,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>182.4966583745247</v>
       </c>
       <c r="V4" t="n">
-        <v>146.9573614306417</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>82.3431148669535</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27627,13 +27627,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>156.6300648296598</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27782,22 +27782,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>22.31857408727991</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27836,10 +27836,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>19.73743940184113</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>70.56627528769883</v>
       </c>
       <c r="F8" t="n">
-        <v>140.1352917780781</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,22 +28019,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>87.62118754448954</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2465092699020199</v>
+        <v>0.2465092699020184</v>
       </c>
       <c r="H11" t="n">
-        <v>2.524563060384062</v>
+        <v>2.524563060384047</v>
       </c>
       <c r="I11" t="n">
-        <v>9.503548627897631</v>
+        <v>9.503548627897576</v>
       </c>
       <c r="J11" t="n">
-        <v>20.92216614634658</v>
+        <v>20.92216614634646</v>
       </c>
       <c r="K11" t="n">
-        <v>31.35690354129909</v>
+        <v>31.35690354129891</v>
       </c>
       <c r="L11" t="n">
-        <v>38.90101161006304</v>
+        <v>38.90101161006281</v>
       </c>
       <c r="M11" t="n">
-        <v>43.28487083868308</v>
+        <v>43.28487083868283</v>
       </c>
       <c r="N11" t="n">
-        <v>43.9852653017922</v>
+        <v>43.98526530179194</v>
       </c>
       <c r="O11" t="n">
-        <v>41.53403874920399</v>
+        <v>41.53403874920375</v>
       </c>
       <c r="P11" t="n">
-        <v>35.44834114849786</v>
+        <v>35.44834114849765</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.62022792013177</v>
+        <v>26.62022792013161</v>
       </c>
       <c r="R11" t="n">
-        <v>15.48478792548277</v>
+        <v>15.48478792548268</v>
       </c>
       <c r="S11" t="n">
-        <v>5.617329987892283</v>
+        <v>5.617329987892251</v>
       </c>
       <c r="T11" t="n">
-        <v>1.079094328996093</v>
+        <v>1.079094328996086</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01972074159216159</v>
+        <v>0.01972074159216147</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1318940871933308</v>
+        <v>0.1318940871933301</v>
       </c>
       <c r="H12" t="n">
-        <v>1.273819210525064</v>
+        <v>1.273819210525056</v>
       </c>
       <c r="I12" t="n">
-        <v>4.541090282752839</v>
+        <v>4.541090282752812</v>
       </c>
       <c r="J12" t="n">
-        <v>12.46109882557693</v>
+        <v>12.46109882557686</v>
       </c>
       <c r="K12" t="n">
-        <v>21.2980026675301</v>
+        <v>21.29800266752997</v>
       </c>
       <c r="L12" t="n">
-        <v>28.63779292327124</v>
+        <v>28.63779292327108</v>
       </c>
       <c r="M12" t="n">
-        <v>33.41895358402948</v>
+        <v>33.41895358402928</v>
       </c>
       <c r="N12" t="n">
-        <v>34.30345384419879</v>
+        <v>34.30345384419859</v>
       </c>
       <c r="O12" t="n">
-        <v>31.38095854375709</v>
+        <v>31.38095854375691</v>
       </c>
       <c r="P12" t="n">
-        <v>25.18598582554052</v>
+        <v>25.18598582554037</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.83616453366097</v>
+        <v>16.83616453366087</v>
       </c>
       <c r="R12" t="n">
-        <v>8.189003062757859</v>
+        <v>8.189003062757813</v>
       </c>
       <c r="S12" t="n">
-        <v>2.449874821332262</v>
+        <v>2.449874821332248</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5316257286432938</v>
+        <v>0.5316257286432907</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008677242578508611</v>
+        <v>0.00867724257850856</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1105755720933446</v>
+        <v>0.110575572093344</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9831173591571922</v>
+        <v>0.9831173591571865</v>
       </c>
       <c r="I13" t="n">
-        <v>3.325309022588947</v>
+        <v>3.325309022588928</v>
       </c>
       <c r="J13" t="n">
-        <v>7.817692946999466</v>
+        <v>7.81769294699942</v>
       </c>
       <c r="K13" t="n">
-        <v>12.84687101229949</v>
+        <v>12.84687101229942</v>
       </c>
       <c r="L13" t="n">
-        <v>16.43957187285962</v>
+        <v>16.43957187285953</v>
       </c>
       <c r="M13" t="n">
-        <v>17.33322354186856</v>
+        <v>17.33322354186846</v>
       </c>
       <c r="N13" t="n">
-        <v>16.92107822770247</v>
+        <v>16.92107822770237</v>
       </c>
       <c r="O13" t="n">
-        <v>15.62935449915748</v>
+        <v>15.62935449915739</v>
       </c>
       <c r="P13" t="n">
-        <v>13.37361282845324</v>
+        <v>13.37361282845316</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.259196314107252</v>
+        <v>9.259196314107196</v>
       </c>
       <c r="R13" t="n">
-        <v>4.971879814306204</v>
+        <v>4.971879814306176</v>
       </c>
       <c r="S13" t="n">
-        <v>1.927030651844924</v>
+        <v>1.927030651844913</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4724592625806542</v>
+        <v>0.4724592625806515</v>
       </c>
       <c r="U13" t="n">
-        <v>0.006031394841455169</v>
+        <v>0.006031394841455135</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2465092699020199</v>
+        <v>0.2465092699020185</v>
       </c>
       <c r="H14" t="n">
-        <v>2.524563060384062</v>
+        <v>2.524563060384047</v>
       </c>
       <c r="I14" t="n">
-        <v>9.503548627897631</v>
+        <v>9.503548627897576</v>
       </c>
       <c r="J14" t="n">
-        <v>20.92216614634658</v>
+        <v>20.92216614634646</v>
       </c>
       <c r="K14" t="n">
-        <v>31.35690354129909</v>
+        <v>31.35690354129891</v>
       </c>
       <c r="L14" t="n">
-        <v>38.90101161006304</v>
+        <v>38.90101161006282</v>
       </c>
       <c r="M14" t="n">
-        <v>43.28487083868308</v>
+        <v>43.28487083868283</v>
       </c>
       <c r="N14" t="n">
-        <v>43.9852653017922</v>
+        <v>43.98526530179195</v>
       </c>
       <c r="O14" t="n">
-        <v>41.53403874920399</v>
+        <v>41.53403874920375</v>
       </c>
       <c r="P14" t="n">
-        <v>35.44834114849786</v>
+        <v>35.44834114849766</v>
       </c>
       <c r="Q14" t="n">
-        <v>26.62022792013177</v>
+        <v>26.62022792013162</v>
       </c>
       <c r="R14" t="n">
-        <v>15.48478792548277</v>
+        <v>15.48478792548268</v>
       </c>
       <c r="S14" t="n">
-        <v>5.617329987892283</v>
+        <v>5.617329987892251</v>
       </c>
       <c r="T14" t="n">
-        <v>1.079094328996093</v>
+        <v>1.079094328996086</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01972074159216159</v>
+        <v>0.01972074159216147</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1318940871933308</v>
+        <v>0.1318940871933301</v>
       </c>
       <c r="H15" t="n">
-        <v>1.273819210525064</v>
+        <v>1.273819210525057</v>
       </c>
       <c r="I15" t="n">
-        <v>4.541090282752839</v>
+        <v>4.541090282752813</v>
       </c>
       <c r="J15" t="n">
-        <v>12.46109882557693</v>
+        <v>12.46109882557686</v>
       </c>
       <c r="K15" t="n">
-        <v>21.2980026675301</v>
+        <v>21.29800266752997</v>
       </c>
       <c r="L15" t="n">
-        <v>28.63779292327124</v>
+        <v>28.63779292327108</v>
       </c>
       <c r="M15" t="n">
-        <v>33.41895358402948</v>
+        <v>33.41895358402929</v>
       </c>
       <c r="N15" t="n">
-        <v>34.30345384419879</v>
+        <v>34.3034538441986</v>
       </c>
       <c r="O15" t="n">
-        <v>31.38095854375709</v>
+        <v>31.38095854375691</v>
       </c>
       <c r="P15" t="n">
-        <v>25.18598582554052</v>
+        <v>25.18598582554037</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.83616453366097</v>
+        <v>16.83616453366087</v>
       </c>
       <c r="R15" t="n">
-        <v>8.189003062757859</v>
+        <v>8.189003062757813</v>
       </c>
       <c r="S15" t="n">
-        <v>2.449874821332262</v>
+        <v>2.449874821332248</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5316257286432938</v>
+        <v>0.5316257286432908</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008677242578508611</v>
+        <v>0.008677242578508562</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1105755720933446</v>
+        <v>0.110575572093344</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9831173591571922</v>
+        <v>0.9831173591571866</v>
       </c>
       <c r="I16" t="n">
-        <v>3.325309022588947</v>
+        <v>3.325309022588928</v>
       </c>
       <c r="J16" t="n">
-        <v>7.817692946999466</v>
+        <v>7.817692946999421</v>
       </c>
       <c r="K16" t="n">
-        <v>12.84687101229949</v>
+        <v>12.84687101229942</v>
       </c>
       <c r="L16" t="n">
-        <v>16.43957187285962</v>
+        <v>16.43957187285953</v>
       </c>
       <c r="M16" t="n">
-        <v>17.33322354186856</v>
+        <v>17.33322354186846</v>
       </c>
       <c r="N16" t="n">
-        <v>16.92107822770247</v>
+        <v>16.92107822770237</v>
       </c>
       <c r="O16" t="n">
-        <v>15.62935449915748</v>
+        <v>15.62935449915739</v>
       </c>
       <c r="P16" t="n">
-        <v>13.37361282845324</v>
+        <v>13.37361282845317</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.259196314107252</v>
+        <v>9.259196314107198</v>
       </c>
       <c r="R16" t="n">
-        <v>4.971879814306204</v>
+        <v>4.971879814306176</v>
       </c>
       <c r="S16" t="n">
-        <v>1.927030651844924</v>
+        <v>1.927030651844913</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4724592625806542</v>
+        <v>0.4724592625806516</v>
       </c>
       <c r="U16" t="n">
-        <v>0.006031394841455169</v>
+        <v>0.006031394841455135</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H17" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I17" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J17" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K17" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L17" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M17" t="n">
         <v>105.1401664086072</v>
@@ -32253,22 +32253,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P17" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S17" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T17" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H18" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I18" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J18" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K18" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L18" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M18" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N18" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O18" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P18" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R18" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S18" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T18" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H19" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I19" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J19" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K19" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L19" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M19" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N19" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O19" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P19" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R19" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S19" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T19" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H20" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I20" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J20" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K20" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L20" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M20" t="n">
         <v>105.1401664086072</v>
@@ -32490,22 +32490,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P20" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S20" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T20" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H21" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I21" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J21" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K21" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L21" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M21" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N21" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O21" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P21" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R21" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S21" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T21" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H22" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I22" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J22" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K22" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L22" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M22" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N22" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O22" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P22" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R22" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S22" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T22" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H38" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M38" t="n">
         <v>105.1401664086072</v>
@@ -33912,22 +33912,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M39" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T39" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R40" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T40" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H41" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M41" t="n">
         <v>105.1401664086072</v>
@@ -34149,22 +34149,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M42" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R43" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T43" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H44" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M44" t="n">
         <v>105.1401664086072</v>
@@ -34386,22 +34386,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M45" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R46" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T46" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>444.7268946856518</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>244.7971333371374</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>233.2518290728937</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.47799132937457</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>467.8947524111488</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>128.0817426464304</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.465299698096228</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>93.701718392375</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>167.0330478724356</v>
+        <v>167.0330478724354</v>
       </c>
       <c r="K11" t="n">
-        <v>393.9653439730787</v>
+        <v>393.9653439730785</v>
       </c>
       <c r="L11" t="n">
-        <v>537.204336578274</v>
+        <v>537.2043365782738</v>
       </c>
       <c r="M11" t="n">
-        <v>594.8009314897746</v>
+        <v>594.8009314897744</v>
       </c>
       <c r="N11" t="n">
-        <v>577.1279760467033</v>
+        <v>577.1279760467031</v>
       </c>
       <c r="O11" t="n">
-        <v>486.0184840949903</v>
+        <v>486.0184840949901</v>
       </c>
       <c r="P11" t="n">
-        <v>387.1528786550856</v>
+        <v>387.1528786550854</v>
       </c>
       <c r="Q11" t="n">
-        <v>213.3329149311909</v>
+        <v>213.3329149311907</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.7186566232813</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>344.2668370738193</v>
       </c>
       <c r="L12" t="n">
-        <v>517.0883847397492</v>
+        <v>517.0883847397491</v>
       </c>
       <c r="M12" t="n">
-        <v>667.5317309847176</v>
+        <v>94.61373784787693</v>
       </c>
       <c r="N12" t="n">
-        <v>696.7054449659756</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>442.9537936510494</v>
+        <v>553.1186177265661</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>434.9045400845277</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>253.5685802456715</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>95.50852869910946</v>
+        <v>95.50852869910939</v>
       </c>
       <c r="L13" t="n">
-        <v>182.2250666948796</v>
+        <v>182.2250666948795</v>
       </c>
       <c r="M13" t="n">
-        <v>205.5065349946605</v>
+        <v>205.5065349946604</v>
       </c>
       <c r="N13" t="n">
-        <v>201.9611126026613</v>
+        <v>201.9611126026612</v>
       </c>
       <c r="O13" t="n">
-        <v>179.9776040362363</v>
+        <v>179.9776040362362</v>
       </c>
       <c r="P13" t="n">
-        <v>134.4606489664114</v>
+        <v>134.4606489664113</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.71596032425973</v>
+        <v>12.71596032425968</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>167.0330478724356</v>
+        <v>167.0330478724354</v>
       </c>
       <c r="K14" t="n">
-        <v>393.9653439730787</v>
+        <v>393.9653439730785</v>
       </c>
       <c r="L14" t="n">
-        <v>537.204336578274</v>
+        <v>537.2043365782738</v>
       </c>
       <c r="M14" t="n">
-        <v>594.8009314897746</v>
+        <v>594.8009314897744</v>
       </c>
       <c r="N14" t="n">
-        <v>577.1279760467033</v>
+        <v>577.1279760467031</v>
       </c>
       <c r="O14" t="n">
-        <v>486.0184840949903</v>
+        <v>486.0184840949901</v>
       </c>
       <c r="P14" t="n">
-        <v>387.1528786550856</v>
+        <v>387.1528786550854</v>
       </c>
       <c r="Q14" t="n">
-        <v>213.3329149311909</v>
+        <v>213.3329149311907</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.7186566232813</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>344.2668370738193</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>517.0883847397491</v>
       </c>
       <c r="M15" t="n">
-        <v>639.5507515644223</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>696.7054449659756</v>
+        <v>94.61373784787671</v>
       </c>
       <c r="O15" t="n">
-        <v>553.1186177265662</v>
+        <v>553.1186177265661</v>
       </c>
       <c r="P15" t="n">
-        <v>434.9045400845278</v>
+        <v>434.9045400845277</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>253.5685802456715</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>95.50852869910946</v>
+        <v>95.50852869910939</v>
       </c>
       <c r="L16" t="n">
-        <v>182.2250666948796</v>
+        <v>182.2250666948795</v>
       </c>
       <c r="M16" t="n">
-        <v>205.5065349946605</v>
+        <v>205.5065349946604</v>
       </c>
       <c r="N16" t="n">
-        <v>201.9611126026613</v>
+        <v>201.9611126026612</v>
       </c>
       <c r="O16" t="n">
-        <v>179.9776040362363</v>
+        <v>179.9776040362362</v>
       </c>
       <c r="P16" t="n">
-        <v>134.4606489664114</v>
+        <v>134.4606489664113</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.71596032425973</v>
+        <v>12.71596032425968</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>280.2819382414317</v>
+        <v>277.4840288693626</v>
       </c>
       <c r="L18" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M18" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N18" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36059,10 +36059,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P19" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>280.2819382414314</v>
       </c>
       <c r="L21" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M21" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>745.7260435143696</v>
       </c>
       <c r="O21" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>428.0450933087383</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36296,10 +36296,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P22" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306461</v>
+        <v>297.7351454737743</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>597.9628884470627</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K30" t="n">
         <v>374.7022807871404</v>
@@ -36919,19 +36919,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>53.34281252159801</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>93.00781853467497</v>
       </c>
       <c r="O33" t="n">
-        <v>280.2819382414318</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M39" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143695</v>
+        <v>506.7797843016867</v>
       </c>
       <c r="O39" t="n">
-        <v>280.2819382414318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37718,10 +37718,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P40" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L41" t="n">
-        <v>592.7949742418865</v>
+        <v>386.6649794938327</v>
       </c>
       <c r="M41" t="n">
         <v>656.6562270596987</v>
@@ -37800,7 +37800,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.2439731939056</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L42" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M42" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P42" t="n">
-        <v>280.2819382414318</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37955,10 +37955,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P43" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K44" t="n">
         <v>438.7752394197637</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418865</v>
+        <v>189.7335688477517</v>
       </c>
       <c r="M44" t="n">
         <v>656.6562270596987</v>
@@ -38034,10 +38034,10 @@
         <v>545.3717914577264</v>
       </c>
       <c r="P44" t="n">
-        <v>231.6795585538325</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>484.7239775258946</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>346.4773176773013</v>
       </c>
       <c r="N45" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P45" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38192,10 +38192,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
